--- a/test_data/single.xlsx
+++ b/test_data/single.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t xml:space="preserve">Ti-6Al-4V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WORKSHEET: ABC123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P:Temperature</t>
   </si>
   <si>
     <t xml:space="preserve">P:Label</t>
@@ -211,7 +217,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -296,10 +302,28 @@
       </c>
       <c r="I2" s="0" t="n">
         <f aca="true">RAND()*50 + 100</f>
-        <v>118.150523470234</v>
-      </c>
-    </row>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>135.978543903077</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="e">
+        <f aca="false">===</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>400</v>
+      </c>
+    </row>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -342,19 +366,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="ALS1" s="0"/>
       <c r="ALT1" s="0"/>
@@ -380,22 +404,22 @@
         <v>9</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -438,10 +462,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -449,13 +473,13 @@
         <v>9</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/test_data/single.xlsx
+++ b/test_data/single.xlsx
@@ -9,8 +9,6 @@
   </bookViews>
   <sheets>
     <sheet name="sem" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="CT porosity" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Hardness Vickers" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -55,54 +53,6 @@
   </si>
   <si>
     <t xml:space="preserve">Ti-6Al-4V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WORKSHEET: ABC123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P:Temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P:Label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S:Volume (µm^3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S:Sphere Equivalent Diameter (µm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FILE: XCT surface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FILE: porosity summary powerpoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M181210a/GKN-7-21.125um-01.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M181210a/porosity summary.pptx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P:X-Distance (mm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CT porosity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1, 2, 3, 4, 5]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0, 1.5, 3.0, 4.5, 6.0]</t>
   </si>
 </sst>
 </file>
@@ -178,21 +128,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="75" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -217,7 +159,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -302,28 +244,12 @@
       </c>
       <c r="I2" s="0" t="n">
         <f aca="true">RAND()*50 + 100</f>
-        <v>135.978543903077</v>
+        <v>122.631703279131</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="e">
-        <f aca="false">===</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>400</v>
-      </c>
-    </row>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -340,156 +266,4 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AMJ2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="true" ht="114" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="ALS1" s="0"/>
-      <c r="ALT1" s="0"/>
-      <c r="ALU1" s="0"/>
-      <c r="ALV1" s="0"/>
-      <c r="ALW1" s="0"/>
-      <c r="ALX1" s="0"/>
-      <c r="ALY1" s="0"/>
-      <c r="ALZ1" s="0"/>
-      <c r="AMA1" s="0"/>
-      <c r="AMB1" s="0"/>
-      <c r="AMC1" s="0"/>
-      <c r="AMD1" s="0"/>
-      <c r="AME1" s="0"/>
-      <c r="AMF1" s="0"/>
-      <c r="AMG1" s="0"/>
-      <c r="AMH1" s="0"/>
-      <c r="AMI1" s="0"/>
-      <c r="AMJ1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D1048576"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="5" style="0" width="8.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="10.5"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
 </file>